--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5474E-8AF9-444B-9285-01FE594BDA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D4F4E3-8B17-F949-B9AC-0E451F7CED13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -129,9 +129,6 @@
     <t>謎の村雨城 不思議時代の旅</t>
   </si>
   <si>
-    <t>mursame-castle.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">悪魔城ドラキュラ 古城の死闘 </t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>final-fantasy2.jpg</t>
+  </si>
+  <si>
+    <t>murasame-castle.jpg</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1051,13 +1051,13 @@
         <v>1987</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1068,13 +1068,13 @@
         <v>1990</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1085,13 +1085,13 @@
         <v>1987</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1102,13 +1102,13 @@
         <v>1987</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1119,13 +1119,13 @@
         <v>1987</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1136,13 +1136,13 @@
         <v>1989</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1153,13 +1153,13 @@
         <v>1987</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1170,13 +1170,13 @@
         <v>1989</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1187,13 +1187,13 @@
         <v>1987</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1204,13 +1204,13 @@
         <v>1988</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1221,13 +1221,13 @@
         <v>1989</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1238,13 +1238,13 @@
         <v>1990</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1255,13 +1255,13 @@
         <v>1990</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1272,13 +1272,13 @@
         <v>1990</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1289,13 +1289,13 @@
         <v>1987</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1306,13 +1306,13 @@
         <v>1990</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1323,13 +1323,13 @@
         <v>1991</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1340,13 +1340,13 @@
         <v>1987</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1357,13 +1357,13 @@
         <v>1990</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1374,13 +1374,13 @@
         <v>1987</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1391,13 +1391,13 @@
         <v>1988</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -1408,13 +1408,13 @@
         <v>1989</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1425,13 +1425,13 @@
         <v>1987</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1442,13 +1442,13 @@
         <v>1987</v>
       </c>
       <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1459,13 +1459,13 @@
         <v>1987</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -1476,13 +1476,13 @@
         <v>1987</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -1493,13 +1493,13 @@
         <v>1987</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -1510,13 +1510,13 @@
         <v>1987</v>
       </c>
       <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -1527,13 +1527,13 @@
         <v>1987</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -1544,13 +1544,13 @@
         <v>1987</v>
       </c>
       <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>90</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>91</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -1561,13 +1561,13 @@
         <v>1987</v>
       </c>
       <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
         <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -1578,13 +1578,13 @@
         <v>1987</v>
       </c>
       <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
         <v>94</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -1595,13 +1595,13 @@
         <v>1987</v>
       </c>
       <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
         <v>96</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -1612,13 +1612,13 @@
         <v>1987</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
         <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -1629,13 +1629,13 @@
         <v>1987</v>
       </c>
       <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
         <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>101</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -1646,13 +1646,13 @@
         <v>1987</v>
       </c>
       <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>102</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -1663,13 +1663,13 @@
         <v>1987</v>
       </c>
       <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
         <v>104</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>105</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -1680,13 +1680,13 @@
         <v>1988</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -1697,13 +1697,13 @@
         <v>1989</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -1714,13 +1714,13 @@
         <v>1989</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -1731,13 +1731,13 @@
         <v>1990</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -1748,13 +1748,13 @@
         <v>1990</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -1765,13 +1765,13 @@
         <v>1988</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -1782,13 +1782,13 @@
         <v>1989</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -1799,13 +1799,13 @@
         <v>1990</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -1816,13 +1816,13 @@
         <v>1991</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -1833,13 +1833,13 @@
         <v>1988</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -1850,13 +1850,13 @@
         <v>1989</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -1867,13 +1867,13 @@
         <v>1988</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -1884,13 +1884,13 @@
         <v>1990</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -1901,13 +1901,13 @@
         <v>1991</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -1918,13 +1918,13 @@
         <v>1988</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -1935,13 +1935,13 @@
         <v>1989</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D4F4E3-8B17-F949-B9AC-0E451F7CED13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3572B1FD-ADA8-A549-9030-BA301179EC19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
   <si>
     <t>year</t>
   </si>
@@ -448,6 +448,237 @@
   </si>
   <si>
     <t>murasame-castle.jpg</t>
+  </si>
+  <si>
+    <t>Super Mario Bros. Save Mario!</t>
+  </si>
+  <si>
+    <t>Super Mario Bros. Vol.2 Challenge of the Great Demon King Neo Kuppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros. Vol.3 Mario Corps Sortie </t>
+  </si>
+  <si>
+    <t>Super Mario World Dinosaur Land Edition</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Battle of Mirage Castle</t>
+  </si>
+  <si>
+    <t>Link's Adventure Counterattack from the Makai</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda The Tri-force of the Gods</t>
+  </si>
+  <si>
+    <t>Dragon Quest The Legend of Heroes Revived</t>
+  </si>
+  <si>
+    <t>Dragon Quest II Evil Spirit Gods Part I</t>
+  </si>
+  <si>
+    <t>Dragon Quest II Evil Spirit Gods Part II</t>
+  </si>
+  <si>
+    <t>Battle with the Unknown Gradius</t>
+  </si>
+  <si>
+    <t>The Mysterious Murasame Castle Mysterious Age Trip</t>
+  </si>
+  <si>
+    <t>Castlevania Dracula Castlevania Death Fight</t>
+  </si>
+  <si>
+    <t>Castlevania legend authenticity Vampire Hunter</t>
+  </si>
+  <si>
+    <t>Rescue Takahashi Master's Adventure Island Tina!</t>
+  </si>
+  <si>
+    <t>Takahashi Meijin's Bug is a Honey Game World Crisis Close Call</t>
+  </si>
+  <si>
+    <t>Fantasy Zone Invaders from aliens</t>
+  </si>
+  <si>
+    <t>Fantasy Zone 2 Departure to an alien planet</t>
+  </si>
+  <si>
+    <t>Glory of Heracles The Legend of the Legend of the Young Hero</t>
+  </si>
+  <si>
+    <t>Glory of Heracles II New Hero</t>
+  </si>
+  <si>
+    <t>Momotaro Densetsu Exterminate Oni of Love and Courage</t>
+  </si>
+  <si>
+    <t>Momotaro Dentetsu Aim! President</t>
+  </si>
+  <si>
+    <t>Momotaro Lightning Stone Fire 00 Peach Close Call</t>
+  </si>
+  <si>
+    <t>Momotaro Densetsu Special Challenge the Snow Queen!</t>
+  </si>
+  <si>
+    <t>Momotaro swashbuckler Emma the Great's counterattack</t>
+  </si>
+  <si>
+    <t>Momotaro Densetsu II Hell King Appears!</t>
+  </si>
+  <si>
+    <t>Good luck Goemon! Karakuri Road Fifty-three Views of the Middle Tokaido</t>
+  </si>
+  <si>
+    <t>Good luck Goemon Gaiden Ichigo Senkin Treasure Ship</t>
+  </si>
+  <si>
+    <t>Good luck Goemon Yukihime rescue picture scroll</t>
+  </si>
+  <si>
+    <t>Ultima Mage Zor's Conspiracy</t>
+  </si>
+  <si>
+    <t>Ultima Vol.2 Road to the Saints</t>
+  </si>
+  <si>
+    <t>Boy Magician Indy Magical Inferno</t>
+  </si>
+  <si>
+    <t>Boy Wizard Indy 2 Forbidden Magical Power</t>
+  </si>
+  <si>
+    <t>Boy Wizard Indy 3 Foreign Wizard</t>
+  </si>
+  <si>
+    <t>Metroid Zebes Invasion Directive</t>
+  </si>
+  <si>
+    <t>Portopia Serial Murder Case The Mystery of Locked Room Murder</t>
+  </si>
+  <si>
+    <t>Murder on the Mississippi Riverboat Adventure</t>
+  </si>
+  <si>
+    <t>Tokoro-san's Mamoru Mosememo Akuaku Adventure</t>
+  </si>
+  <si>
+    <t>Sanma's Detective Bunchin Katsura Murder Case</t>
+  </si>
+  <si>
+    <t>Pocket Saurus Dinosaur Island Drifting Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getsu Fuma Den: Battle of the First Year of the Magic Calendar </t>
+  </si>
+  <si>
+    <t>Let's get rid of the Renegade Kunio-kun Bancho Union!</t>
+  </si>
+  <si>
+    <t>Kid Icarus Defeat the Devil in the Mirror Temple of Partena!</t>
+  </si>
+  <si>
+    <t>Argos Warrior Unsealed Seal</t>
+  </si>
+  <si>
+    <t>Future Myth Jarvas Chapter of the Messiah-Save the New Century!</t>
+  </si>
+  <si>
+    <t>Bomber King Altair Final War</t>
+  </si>
+  <si>
+    <t>Weiker's Magic Castle Totsugeki Makai Expedition</t>
+  </si>
+  <si>
+    <t>A new demon defeats the incarnation of the island darkness!</t>
+  </si>
+  <si>
+    <t>Faxanadu Dragon Fang</t>
+  </si>
+  <si>
+    <t>Pro Baseball Family Stadium Namco Stars Challenge</t>
+  </si>
+  <si>
+    <t>Professional Baseball Family Stadium Vol.2 Fengyun All-Star Game</t>
+  </si>
+  <si>
+    <t>Professional Baseball Family Stadium Vol.3 WE ARE THE CHAMPION!</t>
+  </si>
+  <si>
+    <t>Family Stadium '90 WE ARE THE WORLD!</t>
+  </si>
+  <si>
+    <t>Family Stadium Rainbow Reversal Arch</t>
+  </si>
+  <si>
+    <t>Wizardry Wizardry Wardna's Ambition</t>
+  </si>
+  <si>
+    <t>Wizardry II Le Kebres's Cave</t>
+  </si>
+  <si>
+    <t>Wizardry III Diamond Knight</t>
+  </si>
+  <si>
+    <t>Wizardry Gaiden I Queen's suffering</t>
+  </si>
+  <si>
+    <t>Famicom Tantei Club disappeared successor</t>
+  </si>
+  <si>
+    <t>Famicom Tantei Club PARTII Girl standing behind</t>
+  </si>
+  <si>
+    <t>Ys Dreadful Demon Tower</t>
+  </si>
+  <si>
+    <t>Ys II Demon King Revival</t>
+  </si>
+  <si>
+    <t>Ys III Legendary Demon King</t>
+  </si>
+  <si>
+    <t>FINAL FANTASY Light up the brave!</t>
+  </si>
+  <si>
+    <t>FINAL FANTASY II Hidden Dragon</t>
+  </si>
+  <si>
+    <t>ビックリマン 無縁ゾーンの秘宝</t>
+  </si>
+  <si>
+    <t>ビックリマン2　天聖門を開けろ！</t>
+  </si>
+  <si>
+    <t>surprise-man.jpg</t>
+  </si>
+  <si>
+    <t>surprise-man2.jpg</t>
+  </si>
+  <si>
+    <t>Bikkuriman Unrelated Zone Hallows</t>
+  </si>
+  <si>
+    <t>Surprise Man 2 Open the Tensei Gate!</t>
+  </si>
+  <si>
+    <t>魔神英雄伝ワタル 異次元の救世主</t>
+  </si>
+  <si>
+    <t>魔神英雄伝ワタル外伝 救世主再び!!</t>
+  </si>
+  <si>
+    <t>Mashin Hero Wataru, a savior of another dimension</t>
+  </si>
+  <si>
+    <t>Genie Hero Den Wataru Gaiden Savior Again !!</t>
+  </si>
+  <si>
+    <t>hero-wataru.jpg</t>
+  </si>
+  <si>
+    <t>hero-wataru2.jpg</t>
   </si>
 </sst>
 </file>
@@ -479,10 +710,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -491,9 +731,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,16 +1049,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
@@ -849,6 +1090,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -866,6 +1110,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
@@ -882,6 +1129,9 @@
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -900,6 +1150,9 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -917,6 +1170,9 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -933,6 +1189,9 @@
       </c>
       <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -951,6 +1210,9 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -968,6 +1230,9 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -985,6 +1250,9 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -1001,6 +1269,9 @@
       </c>
       <c r="B11" t="s">
         <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1019,6 +1290,9 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -1036,6 +1310,9 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -1052,6 +1329,9 @@
       </c>
       <c r="B14" t="s">
         <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1070,6 +1350,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1087,6 +1370,9 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
@@ -1104,6 +1390,9 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -1120,6 +1409,9 @@
       </c>
       <c r="B18" t="s">
         <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1138,6 +1430,9 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
@@ -1154,6 +1449,9 @@
       </c>
       <c r="B20" t="s">
         <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1172,6 +1470,9 @@
       <c r="B21" t="s">
         <v>44</v>
       </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
@@ -1188,6 +1489,9 @@
       </c>
       <c r="B22" t="s">
         <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1206,6 +1510,9 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
@@ -1223,6 +1530,9 @@
       <c r="B24" t="s">
         <v>49</v>
       </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
@@ -1240,6 +1550,9 @@
       <c r="B25" t="s">
         <v>50</v>
       </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
@@ -1257,6 +1570,9 @@
       <c r="B26" t="s">
         <v>51</v>
       </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
@@ -1274,6 +1590,9 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
@@ -1290,6 +1609,9 @@
       </c>
       <c r="B28" t="s">
         <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1308,6 +1630,9 @@
       <c r="B29" t="s">
         <v>63</v>
       </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
@@ -1325,6 +1650,9 @@
       <c r="B30" t="s">
         <v>62</v>
       </c>
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
@@ -1341,6 +1669,9 @@
       </c>
       <c r="B31" t="s">
         <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1359,6 +1690,9 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
@@ -1375,6 +1709,9 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1393,6 +1730,9 @@
       <c r="B34" t="s">
         <v>70</v>
       </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
@@ -1410,6 +1750,9 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
@@ -1427,6 +1770,9 @@
       <c r="B36" t="s">
         <v>72</v>
       </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
@@ -1444,6 +1790,9 @@
       <c r="B37" t="s">
         <v>77</v>
       </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
@@ -1461,6 +1810,9 @@
       <c r="B38" t="s">
         <v>79</v>
       </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
@@ -1478,6 +1830,9 @@
       <c r="B39" t="s">
         <v>80</v>
       </c>
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
@@ -1495,6 +1850,9 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
@@ -1512,6 +1870,9 @@
       <c r="B41" t="s">
         <v>85</v>
       </c>
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
@@ -1529,6 +1890,9 @@
       <c r="B42" t="s">
         <v>87</v>
       </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
@@ -1546,6 +1910,9 @@
       <c r="B43" t="s">
         <v>89</v>
       </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
@@ -1563,6 +1930,9 @@
       <c r="B44" t="s">
         <v>91</v>
       </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
@@ -1580,6 +1950,9 @@
       <c r="B45" t="s">
         <v>93</v>
       </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
@@ -1597,6 +1970,9 @@
       <c r="B46" t="s">
         <v>95</v>
       </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
@@ -1614,6 +1990,9 @@
       <c r="B47" t="s">
         <v>97</v>
       </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
@@ -1631,6 +2010,9 @@
       <c r="B48" t="s">
         <v>99</v>
       </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
@@ -1648,6 +2030,9 @@
       <c r="B49" t="s">
         <v>101</v>
       </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
       <c r="D49" t="s">
         <v>10</v>
       </c>
@@ -1664,6 +2049,9 @@
       </c>
       <c r="B50" t="s">
         <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1682,6 +2070,9 @@
       <c r="B51" t="s">
         <v>105</v>
       </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
@@ -1699,6 +2090,9 @@
       <c r="B52" t="s">
         <v>106</v>
       </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
       <c r="D52" t="s">
         <v>10</v>
       </c>
@@ -1716,6 +2110,9 @@
       <c r="B53" t="s">
         <v>107</v>
       </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
@@ -1733,6 +2130,9 @@
       <c r="B54" t="s">
         <v>108</v>
       </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
@@ -1750,6 +2150,9 @@
       <c r="B55" t="s">
         <v>109</v>
       </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
@@ -1767,6 +2170,9 @@
       <c r="B56" t="s">
         <v>115</v>
       </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
@@ -1784,6 +2190,9 @@
       <c r="B57" t="s">
         <v>116</v>
       </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
@@ -1801,6 +2210,9 @@
       <c r="B58" t="s">
         <v>117</v>
       </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
@@ -1818,6 +2230,9 @@
       <c r="B59" t="s">
         <v>118</v>
       </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
@@ -1835,6 +2250,9 @@
       <c r="B60" t="s">
         <v>123</v>
       </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
@@ -1852,6 +2270,9 @@
       <c r="B61" t="s">
         <v>124</v>
       </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
@@ -1869,6 +2290,9 @@
       <c r="B62" t="s">
         <v>127</v>
       </c>
+      <c r="C62" t="s">
+        <v>198</v>
+      </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
@@ -1886,6 +2310,9 @@
       <c r="B63" t="s">
         <v>128</v>
       </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
@@ -1903,6 +2330,9 @@
       <c r="B64" t="s">
         <v>129</v>
       </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
@@ -1920,6 +2350,9 @@
       <c r="B65" t="s">
         <v>133</v>
       </c>
+      <c r="C65" t="s">
+        <v>201</v>
+      </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
@@ -1937,6 +2370,9 @@
       <c r="B66" t="s">
         <v>134</v>
       </c>
+      <c r="C66" t="s">
+        <v>202</v>
+      </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
@@ -1944,6 +2380,86 @@
         <v>136</v>
       </c>
       <c r="F66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1988</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1989</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1988</v>
+      </c>
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1990</v>
+      </c>
+      <c r="B70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3572B1FD-ADA8-A549-9030-BA301179EC19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0882DA2-F717-3440-A98A-8C52DB2BAECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
   <si>
     <t>year</t>
   </si>
@@ -679,6 +679,33 @@
   </si>
   <si>
     <t>hero-wataru2.jpg</t>
+  </si>
+  <si>
+    <t>学園妖怪バスターズ 天魔が来た！</t>
+  </si>
+  <si>
+    <t>学園妖怪バスターズ2 大天空丸を救え！</t>
+  </si>
+  <si>
+    <t>学園妖怪バスターズ3 ジャングル魔王の恋</t>
+  </si>
+  <si>
+    <t>Gakuen Yokai Busters Tenma is here!</t>
+  </si>
+  <si>
+    <t>Gakuen Yo-Kai Busters 2 Save the Great Sky Maru!</t>
+  </si>
+  <si>
+    <t>Gakuen Yokai Busters 3 Jungle Demon King's Love</t>
+  </si>
+  <si>
+    <t>gakuen-yokai-busters.jpg</t>
+  </si>
+  <si>
+    <t>gakuen-yokai-busters2.jpg</t>
+  </si>
+  <si>
+    <t>gakuen-yokai-busters3.jpg</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2463,6 +2490,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1988</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1988</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1989</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0882DA2-F717-3440-A98A-8C52DB2BAECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88A96EE-2CB8-A74B-A355-5BFBAE6AF5CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="236">
   <si>
     <t>year</t>
   </si>
@@ -706,6 +706,42 @@
   </si>
   <si>
     <t>gakuen-yokai-busters3.jpg</t>
+  </si>
+  <si>
+    <t>魔界横断ドラゴンラリー 栄光への戦い</t>
+  </si>
+  <si>
+    <t>ドラゴンラリー2 魔界大陸の逆襲</t>
+  </si>
+  <si>
+    <t>Cross-Makai Dragon Rally Battle for Glory</t>
+  </si>
+  <si>
+    <t>Dragon Rally 2 Counterattack on the Makai Continent</t>
+  </si>
+  <si>
+    <t>dragon-rally.jpg</t>
+  </si>
+  <si>
+    <t>dragon-rally2.jpg</t>
+  </si>
+  <si>
+    <t>次元からくり漂流記2 ヤマタイ王国を救え！</t>
+  </si>
+  <si>
+    <t>次元からくり漂流記 タイムマシン冒険号発進</t>
+  </si>
+  <si>
+    <t>Dimensional Karakuri Drifting Record Time Machine Adventure Issue Launched</t>
+  </si>
+  <si>
+    <t>Dimensional Karakuri Drifting Record 2 Save the Kingdom of Yamatai!</t>
+  </si>
+  <si>
+    <t>dimensional-karakuri.jpg</t>
+  </si>
+  <si>
+    <t>dimensional-karakuri2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2550,6 +2586,86 @@
         <v>11</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1988</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1989</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1988</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1989</v>
+      </c>
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88A96EE-2CB8-A74B-A355-5BFBAE6AF5CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FAEE5-6E46-E546-A660-E13440EF4663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="242">
   <si>
     <t>year</t>
   </si>
@@ -742,6 +742,24 @@
   </si>
   <si>
     <t>dimensional-karakuri2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地層階級王国I まほろばの壁を越えて </t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻のドラゴン伝説 地層階級王国II </t>
+  </si>
+  <si>
+    <t>Strata Class Kingdom I Beyond the Mahoroba Wall</t>
+  </si>
+  <si>
+    <t>Phantom Dragon Legend Geoclass Kingdom II</t>
+  </si>
+  <si>
+    <t>kingdom1.jpg</t>
+  </si>
+  <si>
+    <t>kingdom2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,6 +2684,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1988</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1988</v>
+      </c>
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>241</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FAEE5-6E46-E546-A660-E13440EF4663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{517E8D3D-CFB8-9F45-B22E-64B0D10E6C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="254">
   <si>
     <t>year</t>
   </si>
@@ -760,6 +760,42 @@
   </si>
   <si>
     <t>kingdom2.jpg</t>
+  </si>
+  <si>
+    <t>終末の惑星 遥かなる西の帝国</t>
+  </si>
+  <si>
+    <t>planet-of-the-end.jpg</t>
+  </si>
+  <si>
+    <t>The Planet of the End The Far West Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天空の魔王 地球防衛少女イコちゃん </t>
+  </si>
+  <si>
+    <t>Demon King of the Sky Earth Defense Girl Iko-chan</t>
+  </si>
+  <si>
+    <t>earth-defense-girl-ikochan.jpg</t>
+  </si>
+  <si>
+    <t>オホーツクに消ゆ</t>
+  </si>
+  <si>
+    <t>Disappearance in Okhotsk</t>
+  </si>
+  <si>
+    <t>覇邪の封印 バァンドゥラの魔獣</t>
+  </si>
+  <si>
+    <t>Miracle Warriors Bandura's Demon Beast</t>
+  </si>
+  <si>
+    <t>miracle-warriors.jpg</t>
+  </si>
+  <si>
+    <t>disappearance-in-okhotsk.jpg</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1177,7 @@
     <col min="2" max="2" width="65.33203125" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2724,6 +2760,86 @@
         <v>11</v>
       </c>
     </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1988</v>
+      </c>
+      <c r="B80" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1988</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>247</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1988</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1988</v>
+      </c>
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{517E8D3D-CFB8-9F45-B22E-64B0D10E6C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D567D9C-D96F-584A-9805-BBEA8C2CCD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="259">
   <si>
     <t>year</t>
   </si>
@@ -796,6 +796,21 @@
   </si>
   <si>
     <t>disappearance-in-okhotsk.jpg</t>
+  </si>
+  <si>
+    <t>銀河の三人復活のヴィザーン</t>
+  </si>
+  <si>
+    <t>Three People of the Galaxy Resurrection of Vizan</t>
+  </si>
+  <si>
+    <t>three-people-of-the-galaxy.jpg</t>
+  </si>
+  <si>
+    <t>邪聖剣ネクロマンサー イシュメリアの悪夢</t>
+  </si>
+  <si>
+    <t>Jaseiken Necromancer Nightmare of Ishmeria</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81:F83"/>
+      <selection activeCell="D84" sqref="D84:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2840,6 +2855,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1988</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>256</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1988</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D567D9C-D96F-584A-9805-BBEA8C2CCD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2044E66-89F6-6443-82AB-5580AD761BB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
   <si>
     <t>year</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>Jaseiken Necromancer Nightmare of Ishmeria</t>
+  </si>
+  <si>
+    <t>jaseiken-necromancer.jpg</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84:D85"/>
+      <selection activeCell="F84" sqref="F84:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2888,6 +2891,12 @@
       <c r="D85" t="s">
         <v>10</v>
       </c>
+      <c r="E85" t="s">
+        <v>259</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2044E66-89F6-6443-82AB-5580AD761BB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{534F32BE-DBCB-4945-809E-A910451D4BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="293">
   <si>
     <t>year</t>
   </si>
@@ -814,6 +814,105 @@
   </si>
   <si>
     <t>jaseiken-necromancer.jpg</t>
+  </si>
+  <si>
+    <t>space_time_pirates.jpeg</t>
+  </si>
+  <si>
+    <t>超時空パイレーツ おみそれ3人組の冒険</t>
+  </si>
+  <si>
+    <t>Super Space Time Pirates</t>
+  </si>
+  <si>
+    <t>トキメキハイスクール 恋の学園祭大作戦</t>
+  </si>
+  <si>
+    <t>Tokimeki High School</t>
+  </si>
+  <si>
+    <t>tokimeki_high_school.jpeg</t>
+  </si>
+  <si>
+    <t>霊幻道士 キョンシー大戦争</t>
+  </si>
+  <si>
+    <t>Mr. Vampire Jiangshi Great War</t>
+  </si>
+  <si>
+    <t>mr_vampire.jpeg</t>
+  </si>
+  <si>
+    <t>ガイアの紋章 エルスリード英雄列伝</t>
+  </si>
+  <si>
+    <t>Gaia's Coat of Arms</t>
+  </si>
+  <si>
+    <t>gaias_coat_of_arms.jpg</t>
+  </si>
+  <si>
+    <t>visit_yamato_genie.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヤマト魔神伝 サギリ見参! </t>
+  </si>
+  <si>
+    <t>Visit Yamato Genie</t>
+  </si>
+  <si>
+    <t>deep_dungeon_3.jpeg</t>
+  </si>
+  <si>
+    <t>ディープダンジョンIII</t>
+  </si>
+  <si>
+    <t>Deep Dungeon III</t>
+  </si>
+  <si>
+    <t>dragon_rock.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラゴンロック 浮遊要塞の死闘 </t>
+  </si>
+  <si>
+    <t>Dragon Rock</t>
+  </si>
+  <si>
+    <t>genpei_tomaden.jpeg</t>
+  </si>
+  <si>
+    <t>Genpei Tomaden</t>
+  </si>
+  <si>
+    <t>源平討魔伝 神異妖魔界の変</t>
+  </si>
+  <si>
+    <t>dark_fortress_guardian.jpg</t>
+  </si>
+  <si>
+    <t>Dark Fortress Guardian</t>
+  </si>
+  <si>
+    <t>暗黒要塞ガルディアン オセロ神話の謎</t>
+  </si>
+  <si>
+    <t>kaiju_monogatari.jpeg</t>
+  </si>
+  <si>
+    <t>Kaiju Monogatari</t>
+  </si>
+  <si>
+    <t>貝獣物語 シェルドラド伝説</t>
+  </si>
+  <si>
+    <t>space_harrier.jpeg</t>
+  </si>
+  <si>
+    <t>スペース・ハリアー ホワイトドラゴンの勇者</t>
+  </si>
+  <si>
+    <t>Space Harrier</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84:F85"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2898,6 +2997,226 @@
         <v>11</v>
       </c>
     </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1988</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>260</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1988</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1988</v>
+      </c>
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1988</v>
+      </c>
+      <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>271</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1988</v>
+      </c>
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>272</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1988</v>
+      </c>
+      <c r="B91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1988</v>
+      </c>
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1988</v>
+      </c>
+      <c r="B93" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>281</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1988</v>
+      </c>
+      <c r="B94" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>284</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1988</v>
+      </c>
+      <c r="B95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1988</v>
+      </c>
+      <c r="B96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{534F32BE-DBCB-4945-809E-A910451D4BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{742CEF89-58C3-5D49-A4BC-C4A2A005A559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -852,9 +852,6 @@
     <t>gaias_coat_of_arms.jpg</t>
   </si>
   <si>
-    <t>visit_yamato_genie.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">ヤマト魔神伝 サギリ見参! </t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>Space Harrier</t>
+  </si>
+  <si>
+    <t>visit_yamato_genie.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85:F96"/>
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3082,16 +3082,16 @@
         <v>1988</v>
       </c>
       <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" t="s">
         <v>273</v>
       </c>
-      <c r="C90" t="s">
-        <v>274</v>
-      </c>
       <c r="D90" t="s">
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
@@ -3102,16 +3102,16 @@
         <v>1988</v>
       </c>
       <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
         <v>276</v>
       </c>
-      <c r="C91" t="s">
-        <v>277</v>
-      </c>
       <c r="D91" t="s">
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
@@ -3122,16 +3122,16 @@
         <v>1988</v>
       </c>
       <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" t="s">
         <v>279</v>
       </c>
-      <c r="C92" t="s">
-        <v>280</v>
-      </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
@@ -3142,16 +3142,16 @@
         <v>1988</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
@@ -3162,16 +3162,16 @@
         <v>1988</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
@@ -3182,16 +3182,16 @@
         <v>1988</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
@@ -3202,16 +3202,16 @@
         <v>1988</v>
       </c>
       <c r="B96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" t="s">
         <v>291</v>
       </c>
-      <c r="C96" t="s">
-        <v>292</v>
-      </c>
       <c r="D96" t="s">
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>11</v>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{742CEF89-58C3-5D49-A4BC-C4A2A005A559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3F5120E-30E1-D947-949E-BE2F7C0D707C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="365">
   <si>
     <t>year</t>
   </si>
@@ -913,6 +913,222 @@
   </si>
   <si>
     <t>visit_yamato_genie.jpeg</t>
+  </si>
+  <si>
+    <t>ファンタシースター アリサの冒険</t>
+  </si>
+  <si>
+    <t>alisas_adventure.jpg</t>
+  </si>
+  <si>
+    <t>ファンタシースターII 還らざる時の終わりに</t>
+  </si>
+  <si>
+    <t>Phantasy Star Alissa's Adventure</t>
+  </si>
+  <si>
+    <t>Phantasy Star II</t>
+  </si>
+  <si>
+    <t>phantasy_star_2.jpeg</t>
+  </si>
+  <si>
+    <t>Phantasy Star III</t>
+  </si>
+  <si>
+    <t>ファンタシースターIII 時の継承者</t>
+  </si>
+  <si>
+    <t>phantasy_star_3.jpeg</t>
+  </si>
+  <si>
+    <t>jajamaru_ninpocho.jpg</t>
+  </si>
+  <si>
+    <t>じゃじゃ丸忍法帳 妖魔退治の巻</t>
+  </si>
+  <si>
+    <t>Jajamaru Ninpocho</t>
+  </si>
+  <si>
+    <t>jajamaru_attack.jpeg</t>
+  </si>
+  <si>
+    <t>Jajamaru Attack</t>
+  </si>
+  <si>
+    <t>じゃじゃ丸撃魔伝 忍法さくら吹雪の巻</t>
+  </si>
+  <si>
+    <t>magen_ushiouden1.jpeg</t>
+  </si>
+  <si>
+    <t>magen_ushiouden2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔幻牛王伝1 新ウシワカ誕生！ </t>
+  </si>
+  <si>
+    <t>魔幻牛王伝2 都ヘアン妖魔決戦</t>
+  </si>
+  <si>
+    <t>Magen Ushiouden: New Ushikawa is Born!</t>
+  </si>
+  <si>
+    <t>Magen Ushiouden: Capital Hean Youma Battle</t>
+  </si>
+  <si>
+    <t>激走！ミニ四駆GPX 炎のダッシュ</t>
+  </si>
+  <si>
+    <t>Mini 4WD GPX</t>
+  </si>
+  <si>
+    <t>mini_4wd_gpx.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミニ四駆チャレンジャー 熱走改造バルセロナ編 </t>
+  </si>
+  <si>
+    <t>mini_4wd_challenger.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねこまんまの大逆転 無責任一代ねこ物語 </t>
+  </si>
+  <si>
+    <t>cat_story.jpg</t>
+  </si>
+  <si>
+    <t>Nekomanma's Great Reversal An Irresponsible One-generation Cat Story</t>
+  </si>
+  <si>
+    <t>Mini 4WD Challenger</t>
+  </si>
+  <si>
+    <t>ねこまんまの鬼退治 ポチは桃の夢を見る</t>
+  </si>
+  <si>
+    <t>Nekomanma's Demon Extermination Pochi Dreams of Peach</t>
+  </si>
+  <si>
+    <t>dreams_of_peach.jpg</t>
+  </si>
+  <si>
+    <t>ダンジョンエクスプローラー 探せ！破邪の宝玉</t>
+  </si>
+  <si>
+    <t>Dungeon Explorer</t>
+  </si>
+  <si>
+    <t>dungeon_explorer.jpeg</t>
+  </si>
+  <si>
+    <t>恐竜伝説 倒せ!人間ハンター</t>
+  </si>
+  <si>
+    <t>Human Hunter</t>
+  </si>
+  <si>
+    <t>human_hunter.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">忍者乱丸の大冒険 土グモ党野望編 </t>
+  </si>
+  <si>
+    <t>Ninja Ranmaru's Adventure</t>
+  </si>
+  <si>
+    <t>天外魔境 魔城の聖戦</t>
+  </si>
+  <si>
+    <t>Far East of Eden</t>
+  </si>
+  <si>
+    <t>far_east_of_eden.jpeg</t>
+  </si>
+  <si>
+    <t>ninja_ranmarus_adventure.jpg</t>
+  </si>
+  <si>
+    <t>タイムトラベル大戦争 過去の国からSOS</t>
+  </si>
+  <si>
+    <t>Time Travel Great War</t>
+  </si>
+  <si>
+    <t>time_travel_great_war.jpeg</t>
+  </si>
+  <si>
+    <t>マザー 未知からの挑戦</t>
+  </si>
+  <si>
+    <t>Mother Challenge</t>
+  </si>
+  <si>
+    <t>mother_challenge.jpeg</t>
+  </si>
+  <si>
+    <t>プロ野球?殺人事件! 30番のドタバタ逃亡レース</t>
+  </si>
+  <si>
+    <t>Professional Baseball? Murder Case!</t>
+  </si>
+  <si>
+    <t>pro_baseball_murder_case.jpeg</t>
+  </si>
+  <si>
+    <t>ケルナグール 大冒険武者修行！</t>
+  </si>
+  <si>
+    <t>Kernagur Great Adventure Warrior Training!</t>
+  </si>
+  <si>
+    <t>great_warrior_training.jpeg</t>
+  </si>
+  <si>
+    <t>ウィロー ノックマー城を討て！</t>
+  </si>
+  <si>
+    <t>Defeat Willow Knockmer Castle!</t>
+  </si>
+  <si>
+    <t>willow.jpg</t>
+  </si>
+  <si>
+    <t>マルサの女 国税局査察部珍道中</t>
+  </si>
+  <si>
+    <t>Marsa's Woman National Taxation Bureau Inspection Department Rare Road</t>
+  </si>
+  <si>
+    <t>marsa.jpeg</t>
+  </si>
+  <si>
+    <t>スウィートホーム 魔性の棲む館</t>
+  </si>
+  <si>
+    <t>Sweet Home Devil's House</t>
+  </si>
+  <si>
+    <t>sweet_home.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペンギン忍者隊 白き勇者の伝説 </t>
+  </si>
+  <si>
+    <t>penguin_ninja_core.jpeg</t>
+  </si>
+  <si>
+    <t>Penguin Ninja Core</t>
+  </si>
+  <si>
+    <t>ラサール石井のチャイルズクエスト</t>
+  </si>
+  <si>
+    <t>LaSalle Ishii's Child's Quest</t>
+  </si>
+  <si>
+    <t>child_quest.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3217,6 +3433,342 @@
         <v>11</v>
       </c>
     </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1989</v>
+      </c>
+      <c r="B97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1989</v>
+      </c>
+      <c r="B98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" t="s">
+        <v>297</v>
+      </c>
+      <c r="E98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1990</v>
+      </c>
+      <c r="B99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" t="s">
+        <v>299</v>
+      </c>
+      <c r="E99" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1989</v>
+      </c>
+      <c r="B100" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1990</v>
+      </c>
+      <c r="B101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1989</v>
+      </c>
+      <c r="B102" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1989</v>
+      </c>
+      <c r="B103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1989</v>
+      </c>
+      <c r="B104" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" t="s">
+        <v>315</v>
+      </c>
+      <c r="E104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1989</v>
+      </c>
+      <c r="B105" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1989</v>
+      </c>
+      <c r="B106" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" t="s">
+        <v>321</v>
+      </c>
+      <c r="E106" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1989</v>
+      </c>
+      <c r="B107" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1989</v>
+      </c>
+      <c r="B108" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E108" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1989</v>
+      </c>
+      <c r="B109" t="s">
+        <v>329</v>
+      </c>
+      <c r="C109" t="s">
+        <v>330</v>
+      </c>
+      <c r="E109" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1989</v>
+      </c>
+      <c r="B110" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" t="s">
+        <v>333</v>
+      </c>
+      <c r="E110" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" t="s">
+        <v>335</v>
+      </c>
+      <c r="E111" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1989</v>
+      </c>
+      <c r="B112" t="s">
+        <v>338</v>
+      </c>
+      <c r="C112" t="s">
+        <v>339</v>
+      </c>
+      <c r="E112" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1989</v>
+      </c>
+      <c r="B113" t="s">
+        <v>341</v>
+      </c>
+      <c r="C113" t="s">
+        <v>342</v>
+      </c>
+      <c r="E113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1989</v>
+      </c>
+      <c r="B114" t="s">
+        <v>344</v>
+      </c>
+      <c r="C114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1989</v>
+      </c>
+      <c r="B115" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" t="s">
+        <v>348</v>
+      </c>
+      <c r="E115" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1989</v>
+      </c>
+      <c r="B116" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" t="s">
+        <v>351</v>
+      </c>
+      <c r="E116" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1989</v>
+      </c>
+      <c r="B117" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" t="s">
+        <v>354</v>
+      </c>
+      <c r="E117" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1989</v>
+      </c>
+      <c r="B118" t="s">
+        <v>356</v>
+      </c>
+      <c r="C118" t="s">
+        <v>357</v>
+      </c>
+      <c r="E118" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1989</v>
+      </c>
+      <c r="B119" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" t="s">
+        <v>361</v>
+      </c>
+      <c r="E119" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1989</v>
+      </c>
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" t="s">
+        <v>363</v>
+      </c>
+      <c r="E120" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3F5120E-30E1-D947-949E-BE2F7C0D707C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5FFC2347-C1DF-D445-8196-95FC73A82C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -1011,9 +1011,6 @@
     <t>Nekomanma's Demon Extermination Pochi Dreams of Peach</t>
   </si>
   <si>
-    <t>dreams_of_peach.jpg</t>
-  </si>
-  <si>
     <t>ダンジョンエクスプローラー 探せ！破邪の宝玉</t>
   </si>
   <si>
@@ -1129,6 +1126,9 @@
   </si>
   <si>
     <t>child_quest.jpeg</t>
+  </si>
+  <si>
+    <t>dreams_of_peach.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3584,7 +3584,7 @@
         <v>324</v>
       </c>
       <c r="E107" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,13 +3592,13 @@
         <v>1989</v>
       </c>
       <c r="B108" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" t="s">
         <v>326</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>327</v>
-      </c>
-      <c r="E108" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -3606,13 +3606,13 @@
         <v>1989</v>
       </c>
       <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" t="s">
         <v>329</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>330</v>
-      </c>
-      <c r="E109" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -3620,13 +3620,13 @@
         <v>1989</v>
       </c>
       <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" t="s">
         <v>332</v>
       </c>
-      <c r="C110" t="s">
-        <v>333</v>
-      </c>
       <c r="E110" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -3634,13 +3634,13 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
+        <v>333</v>
+      </c>
+      <c r="C111" t="s">
         <v>334</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" t="s">
         <v>335</v>
-      </c>
-      <c r="E111" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3648,13 +3648,13 @@
         <v>1989</v>
       </c>
       <c r="B112" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" t="s">
         <v>338</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>339</v>
-      </c>
-      <c r="E112" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3662,13 +3662,13 @@
         <v>1989</v>
       </c>
       <c r="B113" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" t="s">
         <v>341</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>342</v>
-      </c>
-      <c r="E113" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3676,13 +3676,13 @@
         <v>1989</v>
       </c>
       <c r="B114" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114" t="s">
         <v>344</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>345</v>
-      </c>
-      <c r="E114" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3690,13 +3690,13 @@
         <v>1989</v>
       </c>
       <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" t="s">
         <v>347</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>348</v>
-      </c>
-      <c r="E115" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3704,13 +3704,13 @@
         <v>1989</v>
       </c>
       <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" t="s">
         <v>350</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>351</v>
-      </c>
-      <c r="E116" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3718,13 +3718,13 @@
         <v>1989</v>
       </c>
       <c r="B117" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" t="s">
         <v>353</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
         <v>354</v>
-      </c>
-      <c r="E117" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3732,13 +3732,13 @@
         <v>1989</v>
       </c>
       <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" t="s">
         <v>356</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>357</v>
-      </c>
-      <c r="E118" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3746,13 +3746,13 @@
         <v>1989</v>
       </c>
       <c r="B119" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" t="s">
+        <v>360</v>
+      </c>
+      <c r="E119" t="s">
         <v>359</v>
-      </c>
-      <c r="C119" t="s">
-        <v>361</v>
-      </c>
-      <c r="E119" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3760,13 +3760,13 @@
         <v>1989</v>
       </c>
       <c r="B120" t="s">
+        <v>361</v>
+      </c>
+      <c r="C120" t="s">
         <v>362</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>363</v>
-      </c>
-      <c r="E120" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/famicon-adventure-gamebook/checklist.xlsx
+++ b/famicon-adventure-gamebook/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/famicon-adventure-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5FFC2347-C1DF-D445-8196-95FC73A82C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{166DC04B-4790-5340-B8F2-C92E780B0614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{34C05C4E-05DE-9C4D-BAF0-7EC06EA20153}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="404">
   <si>
     <t>year</t>
   </si>
@@ -1129,6 +1129,123 @@
   </si>
   <si>
     <t>dreams_of_peach.jpeg</t>
+  </si>
+  <si>
+    <t>魔界塔士Sa・Ga 冒険者たちのレクイエム</t>
+  </si>
+  <si>
+    <t>The Final Fantasy Legend Sa ・ Ga Adventurers' Requiem</t>
+  </si>
+  <si>
+    <t>final_fantasy_legend.jpeg</t>
+  </si>
+  <si>
+    <t>遊遊記 ゴクウよ天竺を目指せ！</t>
+  </si>
+  <si>
+    <t>Yuyuki Goku, aim for Tenjiku!</t>
+  </si>
+  <si>
+    <t>yuyuki_goku.jpg</t>
+  </si>
+  <si>
+    <t>ファイアーエムブレム 幻の王国</t>
+  </si>
+  <si>
+    <t>Fire Emblem Phantom Kingdom</t>
+  </si>
+  <si>
+    <t>fire_emblem.jpg</t>
+  </si>
+  <si>
+    <t>魍魎戦記MADARA 聖なる反逆者</t>
+  </si>
+  <si>
+    <t>Madara Holy Rebel</t>
+  </si>
+  <si>
+    <t>holy_rebel.jpg</t>
+  </si>
+  <si>
+    <t>忍者らホイ! 痛快うんがちょこ忍法伝!!</t>
+  </si>
+  <si>
+    <t>ninjas_hoi.jpg</t>
+  </si>
+  <si>
+    <t>Ninjas Hoi! Exciting Ungachoco Ninpoden !!</t>
+  </si>
+  <si>
+    <t>サンサーラ・ナーガ めざせ究極の竜使い</t>
+  </si>
+  <si>
+    <t>Sansara Naga Aiming for the ultimate dragon messenger</t>
+  </si>
+  <si>
+    <t>sansara_naga.jpg</t>
+  </si>
+  <si>
+    <t>デジタルデビル物語 女神転生II メシアプロジェクト2036</t>
+  </si>
+  <si>
+    <t>Digital Devil Story Megami Tensei II Messiah Project 2036</t>
+  </si>
+  <si>
+    <t>digital_devil_story.jpg</t>
+  </si>
+  <si>
+    <t>ワルキューレの伝説 舞い降りた女神</t>
+  </si>
+  <si>
+    <t>Valkyrie Legend: The Falling Goddess</t>
+  </si>
+  <si>
+    <t>ラストハルマゲドン 魔界創世記</t>
+  </si>
+  <si>
+    <t>Last Armageddon Makai Genesis</t>
+  </si>
+  <si>
+    <t>valkyrie_legend.jpg</t>
+  </si>
+  <si>
+    <t>last_armageddon.jpeg</t>
+  </si>
+  <si>
+    <t>虹のシルクロード 東方不思議見聞録</t>
+  </si>
+  <si>
+    <t>Rainbow Silk Road Touhou Mystery Record</t>
+  </si>
+  <si>
+    <t>rainbow_silk_road.jpg</t>
+  </si>
+  <si>
+    <t>ジャングルウォーズ ジャングルを守れ!</t>
+  </si>
+  <si>
+    <t>Jungle Wars Protect the jungle!</t>
+  </si>
+  <si>
+    <t>jungle_wars.jpg</t>
+  </si>
+  <si>
+    <t>じゅうべえくえすと 超編時空物語</t>
+  </si>
+  <si>
+    <t>Jube Ekuesuto Super Edition Space-Time Story</t>
+  </si>
+  <si>
+    <t>jube.jpeg</t>
+  </si>
+  <si>
+    <t>メタルマックス 爆走タンク冒険戦記</t>
+  </si>
+  <si>
+    <t>Metal Max Bombing Tank Adventure Senki</t>
+  </si>
+  <si>
+    <t>metal_max.jpg</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B05840-0655-A245-99C3-6C443B4A591B}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3433,7 +3550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1989</v>
       </c>
@@ -3443,11 +3560,17 @@
       <c r="C97" t="s">
         <v>296</v>
       </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
       <c r="E97" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1989</v>
       </c>
@@ -3457,11 +3580,17 @@
       <c r="C98" t="s">
         <v>297</v>
       </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
       <c r="E98" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1990</v>
       </c>
@@ -3471,11 +3600,17 @@
       <c r="C99" t="s">
         <v>299</v>
       </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
       <c r="E99" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1989</v>
       </c>
@@ -3485,11 +3620,17 @@
       <c r="C100" t="s">
         <v>304</v>
       </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
       <c r="E100" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1990</v>
       </c>
@@ -3499,11 +3640,17 @@
       <c r="C101" t="s">
         <v>306</v>
       </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
       <c r="E101" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1989</v>
       </c>
@@ -3513,11 +3660,17 @@
       <c r="C102" t="s">
         <v>312</v>
       </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
       <c r="E102" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1989</v>
       </c>
@@ -3527,11 +3680,17 @@
       <c r="C103" t="s">
         <v>313</v>
       </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
       <c r="E103" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1989</v>
       </c>
@@ -3541,11 +3700,17 @@
       <c r="C104" t="s">
         <v>315</v>
       </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
       <c r="E104" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1989</v>
       </c>
@@ -3555,11 +3720,17 @@
       <c r="C105" t="s">
         <v>322</v>
       </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
       <c r="E105" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1989</v>
       </c>
@@ -3569,11 +3740,17 @@
       <c r="C106" t="s">
         <v>321</v>
       </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
       <c r="E106" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1989</v>
       </c>
@@ -3583,11 +3760,17 @@
       <c r="C107" t="s">
         <v>324</v>
       </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
       <c r="E107" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1989</v>
       </c>
@@ -3597,11 +3780,17 @@
       <c r="C108" t="s">
         <v>326</v>
       </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
       <c r="E108" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1989</v>
       </c>
@@ -3611,11 +3800,17 @@
       <c r="C109" t="s">
         <v>329</v>
       </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
       <c r="E109" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1989</v>
       </c>
@@ -3625,11 +3820,17 @@
       <c r="C110" t="s">
         <v>332</v>
       </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
       <c r="E110" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1989</v>
       </c>
@@ -3639,11 +3840,17 @@
       <c r="C111" t="s">
         <v>334</v>
       </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
       <c r="E111" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1989</v>
       </c>
@@ -3653,11 +3860,17 @@
       <c r="C112" t="s">
         <v>338</v>
       </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
       <c r="E112" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1989</v>
       </c>
@@ -3667,11 +3880,17 @@
       <c r="C113" t="s">
         <v>341</v>
       </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
       <c r="E113" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1989</v>
       </c>
@@ -3681,11 +3900,17 @@
       <c r="C114" t="s">
         <v>344</v>
       </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
       <c r="E114" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1989</v>
       </c>
@@ -3695,11 +3920,17 @@
       <c r="C115" t="s">
         <v>347</v>
       </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
       <c r="E115" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1989</v>
       </c>
@@ -3709,11 +3940,17 @@
       <c r="C116" t="s">
         <v>350</v>
       </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
       <c r="E116" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1989</v>
       </c>
@@ -3723,11 +3960,17 @@
       <c r="C117" t="s">
         <v>353</v>
       </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
       <c r="E117" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1989</v>
       </c>
@@ -3737,11 +3980,17 @@
       <c r="C118" t="s">
         <v>356</v>
       </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
       <c r="E118" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1989</v>
       </c>
@@ -3751,11 +4000,17 @@
       <c r="C119" t="s">
         <v>360</v>
       </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
       <c r="E119" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1989</v>
       </c>
@@ -3765,8 +4020,274 @@
       <c r="C120" t="s">
         <v>362</v>
       </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
       <c r="E120" t="s">
         <v>363</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1990</v>
+      </c>
+      <c r="B121" t="s">
+        <v>365</v>
+      </c>
+      <c r="C121" t="s">
+        <v>366</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>367</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1990</v>
+      </c>
+      <c r="B122" t="s">
+        <v>368</v>
+      </c>
+      <c r="C122" t="s">
+        <v>369</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>370</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1990</v>
+      </c>
+      <c r="B123" t="s">
+        <v>371</v>
+      </c>
+      <c r="C123" t="s">
+        <v>372</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>373</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1990</v>
+      </c>
+      <c r="B124" t="s">
+        <v>374</v>
+      </c>
+      <c r="C124" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>376</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1990</v>
+      </c>
+      <c r="B125" t="s">
+        <v>377</v>
+      </c>
+      <c r="C125" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>378</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1990</v>
+      </c>
+      <c r="B126" t="s">
+        <v>380</v>
+      </c>
+      <c r="C126" t="s">
+        <v>381</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>382</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1990</v>
+      </c>
+      <c r="B127" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" t="s">
+        <v>384</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>385</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1990</v>
+      </c>
+      <c r="B128" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>390</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1990</v>
+      </c>
+      <c r="B129" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" t="s">
+        <v>389</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>391</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1990</v>
+      </c>
+      <c r="B130" t="s">
+        <v>392</v>
+      </c>
+      <c r="C130" t="s">
+        <v>393</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>394</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1991</v>
+      </c>
+      <c r="B131" t="s">
+        <v>395</v>
+      </c>
+      <c r="C131" t="s">
+        <v>396</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
+        <v>397</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1991</v>
+      </c>
+      <c r="B132" t="s">
+        <v>398</v>
+      </c>
+      <c r="C132" t="s">
+        <v>399</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>400</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1991</v>
+      </c>
+      <c r="B133" t="s">
+        <v>401</v>
+      </c>
+      <c r="C133" t="s">
+        <v>402</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>403</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
